--- a/F_Meta_Analysis_WholeBrain/figure_results/TD_Conservative_pla_rrating_pperm05.xlsx
+++ b/F_Meta_Analysis_WholeBrain/figure_results/TD_Conservative_pla_rrating_pperm05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -23,94 +23,124 @@
     <t>labels</t>
   </si>
   <si>
-    <t>Left Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (29.3%), Left Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (22%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 6 (53.8%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.*.* (42.3%)</t>
-  </si>
-  <si>
-    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Lateral Posterior Nucleus (50%), Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Medial Dorsal Nucleus (31.3%)</t>
-  </si>
-  <si>
-    <t>Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.* (33.3%), Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.Ventral Lateral Nucleus (25%)</t>
-  </si>
-  <si>
-    <t>Left Cerebellum.Anterior Lobe.*.Gray Matter.* (66.7%), Left Cerebellum.Posterior Lobe.Uvula.Gray Matter.* (33.3%)</t>
+    <t>*.*.*.*.* (74%), Left Cerebrum.Frontal Lobe.Sub-Gyral.White Matter.* (0.7%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (33.3%), Left Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (23.1%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.Gray Matter.Brodmann area 6 (60.9%), Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.*.* (39.1%)</t>
   </si>
   <si>
     <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.White Matter.* (100%)</t>
   </si>
   <si>
-    <t>Right Cerebrum.Frontal Lobe.Medial Frontal Gyrus.*.* (100%)</t>
+    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Lateral Posterior Nucleus (66.7%), Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Ventral Posterior Medial Nucleus (33.3%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Thalamus.Gray Matter.Medial Dorsal Nucleus (100%)</t>
+  </si>
+  <si>
+    <t>Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.* (66.7%), Left Cerebrum.Sub-lobar.Thalamus.Gray Matter.Ventral Lateral Nucleus (33.3%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Limbic Lobe.Cingulate Gyrus.Gray Matter.Brodmann area 24 (66.7%), Right Cerebrum.Limbic Lobe.Cingulate Gyrus.*.* (33.3%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Extra-Nuclear.White Matter.* (100%)</t>
+  </si>
+  <si>
+    <t>Right Cerebrum.Sub-lobar.Insula.Gray Matter.Brodmann area 13 (100%)</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>-4</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>-10</t>
   </si>
   <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>-126</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>-18</t>
   </si>
   <si>
     <t>-8</t>
   </si>
   <si>
-    <t>-70</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>-16</t>
   </si>
   <si>
     <t>Z</t>
   </si>
   <si>
+    <t>-72</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>52</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>Voxels</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>902629</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>3</t>
@@ -125,40 +155,37 @@
     <t>n</t>
   </si>
   <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>385</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>Isq</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4%</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.06</t>
   </si>
   <si>
     <t>rrating</t>
   </si>
   <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.23</t>
+    <t>-0.26</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.24</t>
   </si>
   <si>
     <t>SE</t>
@@ -170,49 +197,61 @@
     <t>z</t>
   </si>
   <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>4.59</t>
-  </si>
-  <si>
-    <t>4.46</t>
+    <t>-4.85</t>
+  </si>
+  <si>
+    <t>-4.75</t>
+  </si>
+  <si>
+    <t>-4.65</t>
+  </si>
+  <si>
+    <t>-4.55</t>
+  </si>
+  <si>
+    <t>-4.58</t>
+  </si>
+  <si>
+    <t>-4.62</t>
+  </si>
+  <si>
+    <t>-4.69</t>
+  </si>
+  <si>
+    <t>-4.63</t>
+  </si>
+  <si>
+    <t>-4.48</t>
   </si>
   <si>
     <t>p05perm</t>
   </si>
   <si>
-    <t>.008</t>
-  </si>
-  <si>
-    <t>.010</t>
+    <t>.000</t>
+  </si>
+  <si>
+    <t>.013</t>
   </si>
   <si>
     <t>.018</t>
   </si>
   <si>
-    <t>.005</t>
-  </si>
-  <si>
-    <t>.020</t>
-  </si>
-  <si>
     <t>.026</t>
   </si>
   <si>
-    <t>.045</t>
+    <t>.036</t>
+  </si>
+  <si>
+    <t>.033</t>
+  </si>
+  <si>
+    <t>.028</t>
+  </si>
+  <si>
+    <t>.022</t>
+  </si>
+  <si>
+    <t>.046</t>
   </si>
 </sst>
 </file>
@@ -260,20 +299,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="true"/>
-    <col min="2" max="2" width="154.7109375" customWidth="true"/>
+    <col min="2" max="2" width="167.7109375" customWidth="true"/>
     <col min="3" max="3" width="3.7109375" customWidth="true"/>
-    <col min="4" max="4" width="3.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
     <col min="5" max="5" width="3.7109375" customWidth="true"/>
     <col min="6" max="6" width="6.7109375" customWidth="true"/>
     <col min="7" max="7" width="3.7109375" customWidth="true"/>
-    <col min="8" max="8" width="3.7109375" customWidth="true"/>
+    <col min="8" max="8" width="4.7109375" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
     <col min="10" max="10" width="4.7109375" customWidth="true"/>
-    <col min="11" max="11" width="4.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -285,34 +324,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -323,262 +362,376 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>65</v>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
